--- a/parent_deaths_condensed.xlsx
+++ b/parent_deaths_condensed.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="600" windowWidth="24560" windowHeight="12960" tabRatio="500"/>
+    <workbookView xWindow="520" yWindow="1680" windowWidth="24560" windowHeight="12960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$57</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="75">
   <si>
     <t>title</t>
   </si>
@@ -234,13 +237,31 @@
   </si>
   <si>
     <t>both</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -260,13 +281,6 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,9 +308,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -576,17 +589,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -599,8 +613,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -610,8 +627,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -621,8 +641,11 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -632,8 +655,11 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -643,8 +669,11 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -654,8 +683,11 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -665,8 +697,11 @@
       <c r="C7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -676,7 +711,9 @@
       <c r="C8" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -688,8 +725,11 @@
       <c r="C9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -699,9 +739,11 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -711,9 +753,11 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -723,8 +767,11 @@
       <c r="C12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -734,8 +781,11 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -745,8 +795,11 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -756,8 +809,11 @@
       <c r="C15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -767,8 +823,11 @@
       <c r="C16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -778,8 +837,11 @@
       <c r="C17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -789,8 +851,11 @@
       <c r="C18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -800,8 +865,11 @@
       <c r="C19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -811,8 +879,11 @@
       <c r="C20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -822,8 +893,11 @@
       <c r="C21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -833,8 +907,11 @@
       <c r="C22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -844,8 +921,11 @@
       <c r="C23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -855,8 +935,11 @@
       <c r="C24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -866,8 +949,11 @@
       <c r="C25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -877,8 +963,11 @@
       <c r="C26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -888,8 +977,11 @@
       <c r="C27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -899,8 +991,11 @@
       <c r="C28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -910,8 +1005,11 @@
       <c r="C29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -921,8 +1019,11 @@
       <c r="C30" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -932,8 +1033,11 @@
       <c r="C31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -943,8 +1047,11 @@
       <c r="C32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -954,8 +1061,11 @@
       <c r="C33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -965,8 +1075,11 @@
       <c r="C34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -976,8 +1089,11 @@
       <c r="C35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -987,8 +1103,11 @@
       <c r="C36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -996,10 +1115,13 @@
         <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1009,30 +1131,81 @@
       <c r="C38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" t="s">
-        <v>68</v>
-      </c>
-    </row>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="49" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="50" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="51" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="52" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="53" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="54" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="55" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="56" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="57" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <autoFilter ref="A1:D57">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="both"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="f"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/parent_deaths_condensed.xlsx
+++ b/parent_deaths_condensed.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="76">
   <si>
     <t>title</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>Bolt</t>
   </si>
 </sst>
 </file>
@@ -589,11 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,7 +619,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -631,7 +633,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -645,7 +647,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -659,7 +661,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -673,7 +675,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -687,7 +689,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -701,7 +703,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -729,7 +731,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -743,7 +745,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -757,7 +759,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -771,7 +773,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -785,7 +787,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -799,7 +801,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -813,7 +815,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -827,7 +829,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -841,7 +843,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -855,7 +857,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -883,7 +885,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -897,7 +899,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -911,7 +913,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -939,7 +941,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -953,7 +955,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -967,7 +969,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -981,7 +983,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -995,7 +997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -1009,7 +1011,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1037,7 +1039,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1051,7 +1053,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -1065,7 +1067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1079,7 +1081,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -1093,7 +1095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -1107,7 +1109,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -1149,7 +1151,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -1163,7 +1165,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -1177,35 +1179,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="54" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="55" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="56" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="57" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D57">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="both"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="f"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D57"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
